--- a/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/wom_sum-raw-ss-lookup-tabbed-age.xlsx
+++ b/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/wom_sum-raw-ss-lookup-tabbed-age.xlsx
@@ -370,7 +370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -390,71 +390,71 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>130</v>
@@ -462,7 +462,7 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>130</v>
@@ -470,7 +470,7 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>130</v>
@@ -478,7 +478,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>130</v>
@@ -486,7 +486,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>130</v>
@@ -494,7 +494,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>130</v>
@@ -502,7 +502,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>130</v>
@@ -510,7 +510,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>130</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>130</v>
@@ -526,7 +526,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>130</v>
@@ -534,7 +534,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>130</v>
@@ -542,9 +542,17 @@
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>130</v>
       </c>
     </row>
@@ -555,7 +563,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -575,95 +583,95 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>130</v>
@@ -671,7 +679,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>130</v>
@@ -679,7 +687,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>130</v>
@@ -687,7 +695,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>130</v>
@@ -695,7 +703,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>130</v>
@@ -703,7 +711,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>130</v>
@@ -711,7 +719,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>130</v>
@@ -719,7 +727,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>130</v>
@@ -727,9 +735,17 @@
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>130</v>
       </c>
     </row>
@@ -740,7 +756,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -760,95 +776,95 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>130</v>
@@ -856,7 +872,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>130</v>
@@ -864,7 +880,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>130</v>
@@ -872,7 +888,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>130</v>
@@ -880,7 +896,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>130</v>
@@ -888,7 +904,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>130</v>
@@ -896,7 +912,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>130</v>
@@ -904,7 +920,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>130</v>
@@ -912,9 +928,17 @@
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>130</v>
       </c>
     </row>
@@ -925,7 +949,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -945,103 +969,103 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>130</v>
@@ -1049,7 +1073,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>130</v>
@@ -1057,7 +1081,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>130</v>
@@ -1065,7 +1089,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>130</v>
@@ -1073,7 +1097,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>130</v>
@@ -1081,7 +1105,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>130</v>
@@ -1089,7 +1113,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>130</v>
@@ -1097,9 +1121,17 @@
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>130</v>
       </c>
     </row>
@@ -1110,7 +1142,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1130,103 +1162,103 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>130</v>
@@ -1234,7 +1266,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>130</v>
@@ -1242,7 +1274,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>130</v>
@@ -1250,7 +1282,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>130</v>
@@ -1258,7 +1290,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>130</v>
@@ -1266,7 +1298,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>130</v>
@@ -1274,7 +1306,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>130</v>
@@ -1282,9 +1314,17 @@
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>130</v>
       </c>
     </row>
@@ -1295,7 +1335,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1315,103 +1355,103 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>130</v>
@@ -1419,7 +1459,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>130</v>
@@ -1427,7 +1467,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>130</v>
@@ -1435,7 +1475,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>130</v>
@@ -1443,7 +1483,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>130</v>
@@ -1451,7 +1491,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>130</v>
@@ -1459,7 +1499,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>130</v>
@@ -1467,9 +1507,17 @@
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>130</v>
       </c>
     </row>
@@ -1480,7 +1528,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1500,103 +1548,103 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>130</v>
@@ -1604,7 +1652,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>130</v>
@@ -1612,7 +1660,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>130</v>
@@ -1620,7 +1668,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>130</v>
@@ -1628,7 +1676,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>130</v>
@@ -1636,7 +1684,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>130</v>
@@ -1644,7 +1692,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>130</v>
@@ -1652,9 +1700,17 @@
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>130</v>
       </c>
     </row>
@@ -1665,7 +1721,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1685,111 +1741,111 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>130</v>
@@ -1797,7 +1853,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>130</v>
@@ -1805,7 +1861,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>130</v>
@@ -1813,7 +1869,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>130</v>
@@ -1821,7 +1877,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>130</v>
@@ -1829,7 +1885,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>130</v>
@@ -1837,9 +1893,17 @@
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>130</v>
       </c>
     </row>
@@ -1850,7 +1914,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1870,111 +1934,111 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>130</v>
@@ -1982,7 +2046,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>130</v>
@@ -1990,7 +2054,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>130</v>
@@ -1998,7 +2062,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>130</v>
@@ -2006,7 +2070,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>130</v>
@@ -2014,7 +2078,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>130</v>
@@ -2022,9 +2086,17 @@
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>130</v>
       </c>
     </row>
@@ -2035,7 +2107,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2055,111 +2127,111 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>130</v>
@@ -2167,7 +2239,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>130</v>
@@ -2175,7 +2247,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>130</v>
@@ -2183,7 +2255,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>130</v>
@@ -2191,7 +2263,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>130</v>
@@ -2199,7 +2271,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>130</v>
@@ -2207,9 +2279,17 @@
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>130</v>
       </c>
     </row>
@@ -2220,7 +2300,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2240,7 +2320,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -2248,111 +2328,111 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>130</v>
@@ -2360,7 +2440,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>130</v>
@@ -2368,7 +2448,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>130</v>
@@ -2376,7 +2456,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>130</v>
@@ -2384,7 +2464,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>130</v>
@@ -2392,9 +2472,17 @@
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>130</v>
       </c>
     </row>
@@ -2405,7 +2493,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2425,71 +2513,71 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>130</v>
@@ -2497,7 +2585,7 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>130</v>
@@ -2505,7 +2593,7 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>130</v>
@@ -2513,7 +2601,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>130</v>
@@ -2521,7 +2609,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>130</v>
@@ -2529,7 +2617,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>130</v>
@@ -2537,7 +2625,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>130</v>
@@ -2545,7 +2633,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>130</v>
@@ -2553,7 +2641,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>130</v>
@@ -2561,7 +2649,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>130</v>
@@ -2569,7 +2657,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>130</v>
@@ -2577,9 +2665,17 @@
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>130</v>
       </c>
     </row>
@@ -2590,7 +2686,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2610,7 +2706,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -2618,111 +2714,111 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>130</v>
@@ -2730,7 +2826,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>130</v>
@@ -2738,7 +2834,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>130</v>
@@ -2746,7 +2842,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>130</v>
@@ -2754,7 +2850,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>130</v>
@@ -2762,9 +2858,17 @@
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>130</v>
       </c>
     </row>
@@ -2775,7 +2879,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2795,79 +2899,79 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>130</v>
@@ -2875,7 +2979,7 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>130</v>
@@ -2883,7 +2987,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>130</v>
@@ -2891,7 +2995,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>130</v>
@@ -2899,7 +3003,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>130</v>
@@ -2907,7 +3011,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>130</v>
@@ -2915,7 +3019,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>130</v>
@@ -2923,7 +3027,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>130</v>
@@ -2931,7 +3035,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>130</v>
@@ -2939,7 +3043,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>130</v>
@@ -2947,9 +3051,17 @@
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>130</v>
       </c>
     </row>
@@ -2960,7 +3072,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2980,79 +3092,79 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>130</v>
@@ -3060,7 +3172,7 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>130</v>
@@ -3068,7 +3180,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>130</v>
@@ -3076,7 +3188,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>130</v>
@@ -3084,7 +3196,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>130</v>
@@ -3092,7 +3204,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>130</v>
@@ -3100,7 +3212,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>130</v>
@@ -3108,7 +3220,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>130</v>
@@ -3116,7 +3228,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>130</v>
@@ -3124,7 +3236,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>130</v>
@@ -3132,9 +3244,17 @@
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>130</v>
       </c>
     </row>
@@ -3145,7 +3265,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3165,79 +3285,79 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>130</v>
@@ -3245,7 +3365,7 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>130</v>
@@ -3253,7 +3373,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>130</v>
@@ -3261,7 +3381,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>130</v>
@@ -3269,7 +3389,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>130</v>
@@ -3277,7 +3397,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>130</v>
@@ -3285,7 +3405,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>130</v>
@@ -3293,7 +3413,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>130</v>
@@ -3301,7 +3421,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>130</v>
@@ -3309,7 +3429,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>130</v>
@@ -3317,9 +3437,17 @@
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>130</v>
       </c>
     </row>
@@ -3330,7 +3458,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3350,87 +3478,87 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>130</v>
@@ -3438,7 +3566,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>130</v>
@@ -3446,7 +3574,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>130</v>
@@ -3454,7 +3582,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>130</v>
@@ -3462,7 +3590,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>130</v>
@@ -3470,7 +3598,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>130</v>
@@ -3478,7 +3606,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>130</v>
@@ -3486,7 +3614,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>130</v>
@@ -3494,7 +3622,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>130</v>
@@ -3502,9 +3630,17 @@
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>130</v>
       </c>
     </row>
@@ -3515,7 +3651,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3535,87 +3671,87 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>130</v>
@@ -3623,7 +3759,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>130</v>
@@ -3631,7 +3767,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>130</v>
@@ -3639,7 +3775,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>130</v>
@@ -3647,7 +3783,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>130</v>
@@ -3655,7 +3791,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>130</v>
@@ -3663,7 +3799,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>130</v>
@@ -3671,7 +3807,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>130</v>
@@ -3679,7 +3815,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>130</v>
@@ -3687,9 +3823,17 @@
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>130</v>
       </c>
     </row>
@@ -3700,7 +3844,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3720,87 +3864,87 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>130</v>
@@ -3808,7 +3952,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>130</v>
@@ -3816,7 +3960,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>130</v>
@@ -3824,7 +3968,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>130</v>
@@ -3832,7 +3976,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>130</v>
@@ -3840,7 +3984,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>130</v>
@@ -3848,7 +3992,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>130</v>
@@ -3856,7 +4000,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>130</v>
@@ -3864,7 +4008,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>130</v>
@@ -3872,9 +4016,17 @@
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>130</v>
       </c>
     </row>
@@ -3885,7 +4037,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3905,95 +4057,95 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>130</v>
@@ -4001,7 +4153,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>130</v>
@@ -4009,7 +4161,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>130</v>
@@ -4017,7 +4169,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>130</v>
@@ -4025,7 +4177,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>130</v>
@@ -4033,7 +4185,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>130</v>
@@ -4041,7 +4193,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>130</v>
@@ -4049,7 +4201,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>130</v>
@@ -4057,9 +4209,17 @@
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>130</v>
       </c>
     </row>

--- a/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/wom_sum-raw-ss-lookup-tabbed-age.xlsx
+++ b/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/wom_sum-raw-ss-lookup-tabbed-age.xlsx
@@ -393,7 +393,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
@@ -401,7 +401,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
@@ -409,7 +409,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
@@ -425,7 +425,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7">
@@ -433,7 +433,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +441,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
@@ -449,7 +449,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10">
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -594,7 +594,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -602,7 +602,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -610,7 +610,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -618,7 +618,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
@@ -626,7 +626,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
@@ -634,7 +634,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
@@ -642,7 +642,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
@@ -650,7 +650,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
@@ -666,7 +666,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -787,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -795,7 +795,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -803,7 +803,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -811,7 +811,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
@@ -819,7 +819,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
@@ -827,7 +827,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -835,7 +835,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
@@ -843,7 +843,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
@@ -851,7 +851,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
@@ -859,7 +859,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
@@ -867,7 +867,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14">
@@ -980,7 +980,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
@@ -988,7 +988,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -996,7 +996,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -1004,7 +1004,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
@@ -1012,7 +1012,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
@@ -1020,7 +1020,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
@@ -1028,7 +1028,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
@@ -1036,7 +1036,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11">
@@ -1044,7 +1044,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12">
@@ -1052,7 +1052,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13">
@@ -1060,7 +1060,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14">
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -1189,7 +1189,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
@@ -1205,7 +1205,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
@@ -1213,7 +1213,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
@@ -1221,7 +1221,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
@@ -1229,7 +1229,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
@@ -1237,7 +1237,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12">
@@ -1245,7 +1245,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13">
@@ -1253,7 +1253,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
@@ -1366,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -1390,7 +1390,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
@@ -1398,7 +1398,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
@@ -1406,7 +1406,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
@@ -1414,7 +1414,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
@@ -1422,7 +1422,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
@@ -1430,7 +1430,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12">
@@ -1438,7 +1438,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13">
@@ -1446,7 +1446,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14">
@@ -1454,7 +1454,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15">
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -1559,7 +1559,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
@@ -1583,7 +1583,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -1591,7 +1591,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
@@ -1599,7 +1599,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
@@ -1607,7 +1607,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10">
@@ -1615,7 +1615,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
@@ -1623,7 +1623,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12">
@@ -1631,7 +1631,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13">
@@ -1639,7 +1639,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14">
@@ -1647,7 +1647,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15">
@@ -1744,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -1752,7 +1752,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
@@ -1760,7 +1760,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
@@ -1776,7 +1776,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
@@ -1784,7 +1784,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
@@ -1792,7 +1792,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
@@ -1800,7 +1800,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -1808,7 +1808,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
@@ -1816,7 +1816,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12">
@@ -1824,7 +1824,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13">
@@ -1832,7 +1832,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
@@ -1840,7 +1840,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -1945,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -1953,7 +1953,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -1961,7 +1961,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -1977,7 +1977,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -1985,7 +1985,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
@@ -1993,7 +1993,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
@@ -2001,7 +2001,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
@@ -2009,7 +2009,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
@@ -2017,7 +2017,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13">
@@ -2025,7 +2025,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
@@ -2033,7 +2033,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15">
@@ -2041,7 +2041,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16">
@@ -2138,7 +2138,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -2146,7 +2146,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
@@ -2154,7 +2154,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
@@ -2162,7 +2162,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -2178,7 +2178,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
@@ -2186,7 +2186,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
@@ -2194,7 +2194,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
@@ -2202,7 +2202,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12">
@@ -2210,7 +2210,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13">
@@ -2218,7 +2218,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14">
@@ -2226,7 +2226,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15">
@@ -2234,7 +2234,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16">
@@ -2331,7 +2331,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -2339,7 +2339,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
@@ -2347,7 +2347,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -2355,7 +2355,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -2379,7 +2379,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
@@ -2387,7 +2387,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
@@ -2395,7 +2395,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12">
@@ -2403,7 +2403,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13">
@@ -2411,7 +2411,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14">
@@ -2419,7 +2419,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15">
@@ -2427,7 +2427,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16">
@@ -2516,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -2524,7 +2524,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
@@ -2532,7 +2532,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
@@ -2548,7 +2548,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7">
@@ -2556,7 +2556,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
@@ -2564,7 +2564,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
@@ -2572,7 +2572,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10">
@@ -2717,7 +2717,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
@@ -2725,7 +2725,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
@@ -2733,7 +2733,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6">
@@ -2741,7 +2741,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
@@ -2749,7 +2749,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
@@ -2781,7 +2781,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
@@ -2797,7 +2797,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14">
@@ -2813,7 +2813,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16">
@@ -2902,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -2910,7 +2910,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
@@ -2918,7 +2918,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
@@ -2942,7 +2942,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8">
@@ -2950,7 +2950,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
@@ -2958,7 +2958,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10">
@@ -2966,7 +2966,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -3103,7 +3103,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
@@ -3111,7 +3111,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
@@ -3119,7 +3119,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
@@ -3135,7 +3135,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
@@ -3143,7 +3143,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9">
@@ -3151,7 +3151,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
@@ -3159,7 +3159,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
@@ -3288,7 +3288,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -3296,7 +3296,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -3304,7 +3304,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
@@ -3312,7 +3312,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
@@ -3336,7 +3336,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
@@ -3344,7 +3344,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -3489,7 +3489,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -3497,7 +3497,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -3505,7 +3505,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
@@ -3513,7 +3513,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
@@ -3521,7 +3521,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
@@ -3545,7 +3545,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
@@ -3553,7 +3553,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
@@ -3674,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
@@ -3690,7 +3690,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -3698,7 +3698,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
@@ -3706,7 +3706,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
@@ -3714,7 +3714,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -3738,7 +3738,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11">
@@ -3746,7 +3746,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12">
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -3875,7 +3875,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -3883,7 +3883,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
@@ -3891,7 +3891,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
@@ -3899,7 +3899,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
@@ -3907,7 +3907,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
@@ -3931,7 +3931,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11">
@@ -3939,7 +3939,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
@@ -4060,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -4068,7 +4068,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -4076,7 +4076,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -4084,7 +4084,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -4092,7 +4092,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
@@ -4100,7 +4100,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
@@ -4108,7 +4108,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
@@ -4116,7 +4116,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
@@ -4124,7 +4124,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11">
@@ -4132,7 +4132,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12">
@@ -4140,7 +4140,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
